--- a/DataFiltered1.xlsx
+++ b/DataFiltered1.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26915"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jossan_cuellar/Documents/Foretagsekonomi/Kandidatuppsats/Algorithmic-Trading/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13680" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -265,6 +273,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -592,16 +605,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G823"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="D445" sqref="D445"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -621,7 +634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>41276</v>
       </c>
@@ -641,7 +654,7 @@
         <v>1126.3604</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>41277</v>
       </c>
@@ -661,7 +674,7 @@
         <v>1126.5228</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>41278</v>
       </c>
@@ -681,7 +694,7 @@
         <v>1127.5369000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41281</v>
       </c>
@@ -701,7 +714,7 @@
         <v>1133.7334000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41282</v>
       </c>
@@ -721,7 +734,7 @@
         <v>1131.3132000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41283</v>
       </c>
@@ -741,7 +754,7 @@
         <v>1120.7121999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>41284</v>
       </c>
@@ -761,7 +774,7 @@
         <v>1127.9736</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>41285</v>
       </c>
@@ -781,7 +794,7 @@
         <v>1129.9254000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>41288</v>
       </c>
@@ -801,7 +814,7 @@
         <v>1136.3751</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>41289</v>
       </c>
@@ -821,7 +834,7 @@
         <v>1131.6143999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>41290</v>
       </c>
@@ -841,7 +854,7 @@
         <v>1124.6869999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>41291</v>
       </c>
@@ -861,7 +874,7 @@
         <v>1133.0889</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>41292</v>
       </c>
@@ -881,7 +894,7 @@
         <v>1137.5101</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>41295</v>
       </c>
@@ -901,7 +914,7 @@
         <v>1137.5337</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>41296</v>
       </c>
@@ -921,7 +934,7 @@
         <v>1140.1754000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41297</v>
       </c>
@@ -941,7 +954,7 @@
         <v>1138.377</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>41298</v>
       </c>
@@ -961,7 +974,7 @@
         <v>1144.6094000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41299</v>
       </c>
@@ -981,7 +994,7 @@
         <v>1151.1610000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>41302</v>
       </c>
@@ -1001,7 +1014,7 @@
         <v>1159.2773</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>41303</v>
       </c>
@@ -1021,7 +1034,7 @@
         <v>1157.7294999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41304</v>
       </c>
@@ -1041,7 +1054,7 @@
         <v>1167.4760000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41305</v>
       </c>
@@ -1061,7 +1074,7 @@
         <v>1170.2778000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>41306</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>1175.5148999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>41309</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>1169.9915000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>41310</v>
       </c>
@@ -1121,7 +1134,7 @@
         <v>1168.2867000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>41311</v>
       </c>
@@ -1144,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>41312</v>
       </c>
@@ -1164,7 +1177,7 @@
         <v>1173.5226</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>41313</v>
       </c>
@@ -1184,7 +1197,7 @@
         <v>1168.6524999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>41316</v>
       </c>
@@ -1204,7 +1217,7 @@
         <v>1175.3855000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>41317</v>
       </c>
@@ -1224,7 +1237,7 @@
         <v>1175.6486</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>41318</v>
       </c>
@@ -1244,7 +1257,7 @@
         <v>1177.3043</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>41319</v>
       </c>
@@ -1264,7 +1277,7 @@
         <v>1177.6790000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>41320</v>
       </c>
@@ -1284,7 +1297,7 @@
         <v>1183.4670000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>41323</v>
       </c>
@@ -1304,7 +1317,7 @@
         <v>1185.6152</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>41324</v>
       </c>
@@ -1324,7 +1337,7 @@
         <v>1189.1104</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41325</v>
       </c>
@@ -1344,7 +1357,7 @@
         <v>1198.566</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41326</v>
       </c>
@@ -1364,7 +1377,7 @@
         <v>1185.9292</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>41327</v>
       </c>
@@ -1384,7 +1397,7 @@
         <v>1201.1772000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>41330</v>
       </c>
@@ -1404,7 +1417,7 @@
         <v>1207.0032000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41331</v>
       </c>
@@ -1424,7 +1437,7 @@
         <v>1184.1022</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41332</v>
       </c>
@@ -1444,7 +1457,7 @@
         <v>1179.2366999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41333</v>
       </c>
@@ -1464,7 +1477,7 @@
         <v>1193.8100999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41334</v>
       </c>
@@ -1484,7 +1497,7 @@
         <v>1195.4921999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41337</v>
       </c>
@@ -1504,7 +1517,7 @@
         <v>1196.2126000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>41338</v>
       </c>
@@ -1524,7 +1537,7 @@
         <v>1213.5405000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>41339</v>
       </c>
@@ -1544,7 +1557,7 @@
         <v>1216.4883</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>41340</v>
       </c>
@@ -1564,7 +1577,7 @@
         <v>1210.5404000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>41341</v>
       </c>
@@ -1584,7 +1597,7 @@
         <v>1214.9546</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>41344</v>
       </c>
@@ -1604,7 +1617,7 @@
         <v>1213.5527</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>41345</v>
       </c>
@@ -1624,7 +1637,7 @@
         <v>1216.0317</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>41346</v>
       </c>
@@ -1644,7 +1657,7 @@
         <v>1205.7098000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>41347</v>
       </c>
@@ -1664,7 +1677,7 @@
         <v>1219.5853</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>41348</v>
       </c>
@@ -1684,7 +1697,7 @@
         <v>1216.1903</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>41351</v>
       </c>
@@ -1704,7 +1717,7 @@
         <v>1203.7501999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>41352</v>
       </c>
@@ -1724,7 +1737,7 @@
         <v>1205.4541999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>41353</v>
       </c>
@@ -1744,7 +1757,7 @@
         <v>1199.2046</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41354</v>
       </c>
@@ -1764,7 +1777,7 @@
         <v>1194.8751999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>41355</v>
       </c>
@@ -1784,7 +1797,7 @@
         <v>1185.6348</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>41358</v>
       </c>
@@ -1804,7 +1817,7 @@
         <v>1206.2347</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>41359</v>
       </c>
@@ -1824,7 +1837,7 @@
         <v>1196.2655999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>41360</v>
       </c>
@@ -1844,7 +1857,7 @@
         <v>1191.0125</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>41361</v>
       </c>
@@ -1864,7 +1877,7 @@
         <v>1202.8712</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>41366</v>
       </c>
@@ -1884,7 +1897,7 @@
         <v>1205.6315999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41367</v>
       </c>
@@ -1904,7 +1917,7 @@
         <v>1210.0953</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>41368</v>
       </c>
@@ -1924,7 +1937,7 @@
         <v>1193.2206000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>41369</v>
       </c>
@@ -1944,7 +1957,7 @@
         <v>1180.5342000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>41372</v>
       </c>
@@ -1964,7 +1977,7 @@
         <v>1172.3771999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>41373</v>
       </c>
@@ -1984,7 +1997,7 @@
         <v>1174.17</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>41374</v>
       </c>
@@ -2004,7 +2017,7 @@
         <v>1188.2322999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>41375</v>
       </c>
@@ -2024,7 +2037,7 @@
         <v>1196.5432000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>41376</v>
       </c>
@@ -2044,7 +2057,7 @@
         <v>1186.4512</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>41379</v>
       </c>
@@ -2064,7 +2077,7 @@
         <v>1169.3728000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>41380</v>
       </c>
@@ -2084,7 +2097,7 @@
         <v>1169.7956999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>41381</v>
       </c>
@@ -2104,7 +2117,7 @@
         <v>1156.9509</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>41382</v>
       </c>
@@ -2124,7 +2137,7 @@
         <v>1151.8272999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>41383</v>
       </c>
@@ -2144,7 +2157,7 @@
         <v>1151.8324</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>41386</v>
       </c>
@@ -2164,7 +2177,7 @@
         <v>1157.7736</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>41387</v>
       </c>
@@ -2184,7 +2197,7 @@
         <v>1155.2329</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>41388</v>
       </c>
@@ -2204,7 +2217,7 @@
         <v>1164.8839</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>41389</v>
       </c>
@@ -2224,7 +2237,7 @@
         <v>1183.3203000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>41390</v>
       </c>
@@ -2244,7 +2257,7 @@
         <v>1191.7605000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>41393</v>
       </c>
@@ -2264,7 +2277,7 @@
         <v>1191.6124</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>41394</v>
       </c>
@@ -2284,7 +2297,7 @@
         <v>1201.6461999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>41396</v>
       </c>
@@ -2304,7 +2317,7 @@
         <v>1192.1603</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>41397</v>
       </c>
@@ -2324,7 +2337,7 @@
         <v>1193.2733000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>41400</v>
       </c>
@@ -2344,7 +2357,7 @@
         <v>1203.0223000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>41401</v>
       </c>
@@ -2364,7 +2377,7 @@
         <v>1211.0654</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>41402</v>
       </c>
@@ -2384,7 +2397,7 @@
         <v>1218.5971999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6">
         <v>41404</v>
       </c>
@@ -2393,7 +2406,7 @@
       </c>
       <c r="C90">
         <f ca="1">RANDBETWEEN(1223.37,1232.85)</f>
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -2403,13 +2416,13 @@
       </c>
       <c r="F90" s="3">
         <f ca="1">C90-0.15</f>
-        <v>1228.8499999999999</v>
+        <v>1224.8499999999999</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>41407</v>
       </c>
@@ -2429,7 +2442,7 @@
         <v>1223.5954999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>41408</v>
       </c>
@@ -2449,7 +2462,7 @@
         <v>1219.2539999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>41409</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>1229.8818000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>41410</v>
       </c>
@@ -2489,7 +2502,7 @@
         <v>1236.0001999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>41411</v>
       </c>
@@ -2509,7 +2522,7 @@
         <v>1239.0646999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>41414</v>
       </c>
@@ -2529,7 +2542,7 @@
         <v>1245.9313</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>41415</v>
       </c>
@@ -2549,7 +2562,7 @@
         <v>1236.9955</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>41416</v>
       </c>
@@ -2569,7 +2582,7 @@
         <v>1246.7085999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>41417</v>
       </c>
@@ -2589,7 +2602,7 @@
         <v>1221.1033</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>41418</v>
       </c>
@@ -2609,7 +2622,7 @@
         <v>1223.5735</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>41421</v>
       </c>
@@ -2629,7 +2642,7 @@
         <v>1220.9354000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>41422</v>
       </c>
@@ -2649,7 +2662,7 @@
         <v>1243.0059000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>41423</v>
       </c>
@@ -2669,7 +2682,7 @@
         <v>1232.3271</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>41424</v>
       </c>
@@ -2689,7 +2702,7 @@
         <v>1224.8121000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>41425</v>
       </c>
@@ -2709,7 +2722,7 @@
         <v>1212.1993</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>41428</v>
       </c>
@@ -2729,7 +2742,7 @@
         <v>1214.1507999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>41429</v>
       </c>
@@ -2749,7 +2762,7 @@
         <v>1209.0458000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>41430</v>
       </c>
@@ -2769,7 +2782,7 @@
         <v>1195.0419999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>41432</v>
       </c>
@@ -2789,7 +2802,7 @@
         <v>1175.9469999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>41435</v>
       </c>
@@ -2809,7 +2822,7 @@
         <v>1192.6432</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>41436</v>
       </c>
@@ -2829,7 +2842,7 @@
         <v>1185.1683</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>41437</v>
       </c>
@@ -2849,7 +2862,7 @@
         <v>1188.7858000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>41438</v>
       </c>
@@ -2869,7 +2882,7 @@
         <v>1159.4338</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>41439</v>
       </c>
@@ -2889,7 +2902,7 @@
         <v>1179.027</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
         <v>41442</v>
       </c>
@@ -2898,7 +2911,7 @@
       </c>
       <c r="C115">
         <f ca="1">RANDBETWEEN(1183.4,1198.12)</f>
-        <v>1197</v>
+        <v>1191</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2908,13 +2921,13 @@
       </c>
       <c r="F115">
         <f ca="1">C115+0.01</f>
-        <v>1197.01</v>
+        <v>1191.01</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
         <v>41443</v>
       </c>
@@ -2923,7 +2936,7 @@
       </c>
       <c r="C116">
         <f ca="1">RANDBETWEEN(1180.23,1196.45)</f>
-        <v>1185</v>
+        <v>1192</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2933,13 +2946,13 @@
       </c>
       <c r="F116">
         <f ca="1">C116+0.12</f>
-        <v>1185.1199999999999</v>
+        <v>1192.1199999999999</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>41444</v>
       </c>
@@ -2959,7 +2972,7 @@
         <v>1187.5924</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>41445</v>
       </c>
@@ -2979,7 +2992,7 @@
         <v>1146.2238</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>41449</v>
       </c>
@@ -2999,7 +3012,7 @@
         <v>1116.1521</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>41450</v>
       </c>
@@ -3019,7 +3032,7 @@
         <v>1132.7394999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>41451</v>
       </c>
@@ -3039,7 +3052,7 @@
         <v>1146.7672</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>41452</v>
       </c>
@@ -3059,7 +3072,7 @@
         <v>1149.5032000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>41453</v>
       </c>
@@ -3079,7 +3092,7 @@
         <v>1160.2611999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="6">
         <v>41456</v>
       </c>
@@ -3088,7 +3101,7 @@
       </c>
       <c r="C124">
         <f ca="1">RANDBETWEEN(1153.88,1167.34)</f>
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3098,13 +3111,13 @@
       </c>
       <c r="F124">
         <f ca="1">C124+0.1</f>
-        <v>1167.0999999999999</v>
+        <v>1163.0999999999999</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="6">
         <v>41457</v>
       </c>
@@ -3113,7 +3126,7 @@
       </c>
       <c r="C125">
         <f ca="1">RANDBETWEEN(1150.39,1165.98)</f>
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3123,13 +3136,13 @@
       </c>
       <c r="F125">
         <f ca="1">C125+0.2</f>
-        <v>1156.2</v>
+        <v>1157.2</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>41458</v>
       </c>
@@ -3149,7 +3162,7 @@
         <v>1144.4431</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>41459</v>
       </c>
@@ -3169,7 +3182,7 @@
         <v>1164.2185999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>41460</v>
       </c>
@@ -3189,7 +3202,7 @@
         <v>1178.2501999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>41463</v>
       </c>
@@ -3209,7 +3222,7 @@
         <v>1185.4580000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>41464</v>
       </c>
@@ -3229,7 +3242,7 @@
         <v>1191.6123</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>41465</v>
       </c>
@@ -3249,7 +3262,7 @@
         <v>1193.415</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>41466</v>
       </c>
@@ -3269,7 +3282,7 @@
         <v>1207.3411000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>41467</v>
       </c>
@@ -3289,7 +3302,7 @@
         <v>1216.22</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>41470</v>
       </c>
@@ -3309,7 +3322,7 @@
         <v>1216.4793999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>41471</v>
       </c>
@@ -3329,7 +3342,7 @@
         <v>1218.1465000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>41472</v>
       </c>
@@ -3349,7 +3362,7 @@
         <v>1205.8198</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>41473</v>
       </c>
@@ -3369,7 +3382,7 @@
         <v>1211.8190999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>41474</v>
       </c>
@@ -3389,7 +3402,7 @@
         <v>1215.752</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>41477</v>
       </c>
@@ -3409,7 +3422,7 @@
         <v>1216.6913999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>41478</v>
       </c>
@@ -3429,7 +3442,7 @@
         <v>1219.8451</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>41479</v>
       </c>
@@ -3449,7 +3462,7 @@
         <v>1227.0386000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>41480</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>1222.2556</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>41481</v>
       </c>
@@ -3489,7 +3502,7 @@
         <v>1226.6119000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>41484</v>
       </c>
@@ -3509,7 +3522,7 @@
         <v>1228.4448</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>41485</v>
       </c>
@@ -3529,7 +3542,7 @@
         <v>1232.8549</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>41486</v>
       </c>
@@ -3549,7 +3562,7 @@
         <v>1239.7881</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>41487</v>
       </c>
@@ -3569,7 +3582,7 @@
         <v>1242.3574000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>41488</v>
       </c>
@@ -3589,7 +3602,7 @@
         <v>1251.4956999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>41491</v>
       </c>
@@ -3609,7 +3622,7 @@
         <v>1251.0935999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="8">
         <v>41492</v>
       </c>
@@ -3632,7 +3645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="8">
         <v>41493</v>
       </c>
@@ -3652,7 +3665,7 @@
         <v>1239.5931</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="8">
         <v>41494</v>
       </c>
@@ -3675,7 +3688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>41495</v>
       </c>
@@ -3695,7 +3708,7 @@
         <v>1252.2917</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>41498</v>
       </c>
@@ -3715,7 +3728,7 @@
         <v>1251.905</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>41499</v>
       </c>
@@ -3735,7 +3748,7 @@
         <v>1260.0773999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>41500</v>
       </c>
@@ -3755,7 +3768,7 @@
         <v>1265.7304999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>41501</v>
       </c>
@@ -3775,7 +3788,7 @@
         <v>1251.9051999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="8">
         <v>41502</v>
       </c>
@@ -3798,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>41505</v>
       </c>
@@ -3818,7 +3831,7 @@
         <v>1255.5562</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="8">
         <v>41506</v>
       </c>
@@ -3838,7 +3851,7 @@
         <v>1239.5931</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="8">
         <v>41507</v>
       </c>
@@ -3861,7 +3874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>41508</v>
       </c>
@@ -3881,7 +3894,7 @@
         <v>1233.9899</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>41509</v>
       </c>
@@ -3901,7 +3914,7 @@
         <v>1239.4266</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>41512</v>
       </c>
@@ -3921,7 +3934,7 @@
         <v>1237.6387999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>41513</v>
       </c>
@@ -3941,7 +3954,7 @@
         <v>1224.0024000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="8">
         <v>41515</v>
       </c>
@@ -3961,7 +3974,7 @@
         <v>1223.6579999999999</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>41515</v>
       </c>
@@ -3981,7 +3994,7 @@
         <v>1223.6579999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>41516</v>
       </c>
@@ -4001,7 +4014,7 @@
         <v>1217.8136</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>41519</v>
       </c>
@@ -4021,7 +4034,7 @@
         <v>1227.2438999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>41520</v>
       </c>
@@ -4041,7 +4054,7 @@
         <v>1232.9811</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>41521</v>
       </c>
@@ -4061,7 +4074,7 @@
         <v>1233.4595999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>41522</v>
       </c>
@@ -4081,7 +4094,7 @@
         <v>1245.7542000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>41523</v>
       </c>
@@ -4101,7 +4114,7 @@
         <v>1245.8397</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>41526</v>
       </c>
@@ -4121,7 +4134,7 @@
         <v>1245.8212000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>41527</v>
       </c>
@@ -4141,7 +4154,7 @@
         <v>1263.5045</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>41528</v>
       </c>
@@ -4161,7 +4174,7 @@
         <v>1268.9789000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>41529</v>
       </c>
@@ -4181,7 +4194,7 @@
         <v>1265.5103999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>41530</v>
       </c>
@@ -4201,7 +4214,7 @@
         <v>1263.8403000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>41533</v>
       </c>
@@ -4221,7 +4234,7 @@
         <v>1277.3215</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>41534</v>
       </c>
@@ -4241,7 +4254,7 @@
         <v>1276.3394000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>41535</v>
       </c>
@@ -4261,7 +4274,7 @@
         <v>1275.9736</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>41536</v>
       </c>
@@ -4281,7 +4294,7 @@
         <v>1290.51</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>41537</v>
       </c>
@@ -4301,7 +4314,7 @@
         <v>1285.3900000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>41540</v>
       </c>
@@ -4321,7 +4334,7 @@
         <v>1282.9069</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>41541</v>
       </c>
@@ -4341,7 +4354,7 @@
         <v>1276.1006</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>41542</v>
       </c>
@@ -4361,7 +4374,7 @@
         <v>1274.2202</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>41543</v>
       </c>
@@ -4381,7 +4394,7 @@
         <v>1276.4992999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>41544</v>
       </c>
@@ -4401,7 +4414,7 @@
         <v>1270.6731</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>41547</v>
       </c>
@@ -4421,7 +4434,7 @@
         <v>1254.5504000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>41548</v>
       </c>
@@ -4441,7 +4454,7 @@
         <v>1259.8813</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>41549</v>
       </c>
@@ -4461,7 +4474,7 @@
         <v>1261.2682</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>41550</v>
       </c>
@@ -4481,7 +4494,7 @@
         <v>1263.8496</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>41551</v>
       </c>
@@ -4501,7 +4514,7 @@
         <v>1254.5954999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>41554</v>
       </c>
@@ -4521,7 +4534,7 @@
         <v>1243.5923</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>41555</v>
       </c>
@@ -4541,7 +4554,7 @@
         <v>1242.6486</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>41556</v>
       </c>
@@ -4561,7 +4574,7 @@
         <v>1241.2076</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>41557</v>
       </c>
@@ -4581,7 +4594,7 @@
         <v>1252.2592</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>41558</v>
       </c>
@@ -4601,7 +4614,7 @@
         <v>1264.6333999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>41561</v>
       </c>
@@ -4621,7 +4634,7 @@
         <v>1258.9919</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>41562</v>
       </c>
@@ -4641,7 +4654,7 @@
         <v>1268.9166</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>41563</v>
       </c>
@@ -4661,7 +4674,7 @@
         <v>1256.1251999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>41564</v>
       </c>
@@ -4681,7 +4694,7 @@
         <v>1262.5282999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>41565</v>
       </c>
@@ -4701,7 +4714,7 @@
         <v>1275.902</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>41568</v>
       </c>
@@ -4721,7 +4734,7 @@
         <v>1287.7827</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>41569</v>
       </c>
@@ -4741,7 +4754,7 @@
         <v>1293.6361999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>41570</v>
       </c>
@@ -4761,7 +4774,7 @@
         <v>1292.5376000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>41571</v>
       </c>
@@ -4781,7 +4794,7 @@
         <v>1293.9670000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>41572</v>
       </c>
@@ -4801,7 +4814,7 @@
         <v>1288.0109</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>41575</v>
       </c>
@@ -4821,7 +4834,7 @@
         <v>1288.1384</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>41576</v>
       </c>
@@ -4841,7 +4854,7 @@
         <v>1290.9391000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>41577</v>
       </c>
@@ -4861,7 +4874,7 @@
         <v>1294.4166</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>41578</v>
       </c>
@@ -4881,7 +4894,7 @@
         <v>1284.3483000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>41579</v>
       </c>
@@ -4901,7 +4914,7 @@
         <v>1276.4376999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>41582</v>
       </c>
@@ -4921,7 +4934,7 @@
         <v>1283.2506000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>41583</v>
       </c>
@@ -4941,7 +4954,7 @@
         <v>1276.9032999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>41584</v>
       </c>
@@ -4961,7 +4974,7 @@
         <v>1285.8407999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>41585</v>
       </c>
@@ -4981,7 +4994,7 @@
         <v>1285.6038000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>41586</v>
       </c>
@@ -5001,7 +5014,7 @@
         <v>1280.4485</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>41589</v>
       </c>
@@ -5021,7 +5034,7 @@
         <v>1285.8566000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>41590</v>
       </c>
@@ -5041,7 +5054,7 @@
         <v>1281.3975</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>41591</v>
       </c>
@@ -5061,7 +5074,7 @@
         <v>1274.6343999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>41592</v>
       </c>
@@ -5081,7 +5094,7 @@
         <v>1284.0251000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>41593</v>
       </c>
@@ -5101,7 +5114,7 @@
         <v>1293.1913</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>41596</v>
       </c>
@@ -5121,7 +5134,7 @@
         <v>1300.7308</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>41597</v>
       </c>
@@ -5141,7 +5154,7 @@
         <v>1297.4526000000001</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>41598</v>
       </c>
@@ -5161,7 +5174,7 @@
         <v>1291.5011</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>41599</v>
       </c>
@@ -5181,7 +5194,7 @@
         <v>1286.7659000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>41600</v>
       </c>
@@ -5201,7 +5214,7 @@
         <v>1292.8187</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>41603</v>
       </c>
@@ -5221,7 +5234,7 @@
         <v>1302.6695999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>41604</v>
       </c>
@@ -5241,7 +5254,7 @@
         <v>1305.6498999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>41605</v>
       </c>
@@ -5261,7 +5274,7 @@
         <v>1306.5211999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>41606</v>
       </c>
@@ -5281,7 +5294,7 @@
         <v>1314.4274</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>41607</v>
       </c>
@@ -5301,7 +5314,7 @@
         <v>1312.1110000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>41610</v>
       </c>
@@ -5321,7 +5334,7 @@
         <v>1306.7111</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>41611</v>
       </c>
@@ -5341,7 +5354,7 @@
         <v>1296.6635000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>41612</v>
       </c>
@@ -5361,7 +5374,7 @@
         <v>1275.1246000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>41613</v>
       </c>
@@ -5381,7 +5394,7 @@
         <v>1278.4983</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>41614</v>
       </c>
@@ -5401,7 +5414,7 @@
         <v>1269.1912</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>41617</v>
       </c>
@@ -5421,7 +5434,7 @@
         <v>1274.8732</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>41618</v>
       </c>
@@ -5441,7 +5454,7 @@
         <v>1280.0305000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>41619</v>
       </c>
@@ -5461,7 +5474,7 @@
         <v>1273.7789</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>41620</v>
       </c>
@@ -5481,7 +5494,7 @@
         <v>1255.0632000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>41621</v>
       </c>
@@ -5501,7 +5514,7 @@
         <v>1259.9060999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>41624</v>
       </c>
@@ -5521,7 +5534,7 @@
         <v>1261.366</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>41625</v>
       </c>
@@ -5541,7 +5554,7 @@
         <v>1270.7402</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>41626</v>
       </c>
@@ -5561,7 +5574,7 @@
         <v>1277.2922000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>41627</v>
       </c>
@@ -5581,7 +5594,7 @@
         <v>1292.3690999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>41628</v>
       </c>
@@ -5601,7 +5614,7 @@
         <v>1302.6564000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>41631</v>
       </c>
@@ -5621,7 +5634,7 @@
         <v>1316.0360000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>41635</v>
       </c>
@@ -5641,7 +5654,7 @@
         <v>1334.6641999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>41638</v>
       </c>
@@ -5661,7 +5674,7 @@
         <v>1334.5137</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" s="4">
         <v>41641</v>
       </c>
@@ -5681,7 +5694,7 @@
         <v>1323.0386000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" s="4">
         <v>41642</v>
       </c>
@@ -5701,7 +5714,7 @@
         <v>1327.2671</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" s="6">
         <v>41646</v>
       </c>
@@ -5710,7 +5723,7 @@
       </c>
       <c r="C254" s="3">
         <f ca="1">RANDBETWEEN(1323.37,1330.09)</f>
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D254" s="3">
         <v>0</v>
@@ -5720,13 +5733,13 @@
       </c>
       <c r="F254" s="3">
         <f ca="1">C254+0.06</f>
-        <v>1325.06</v>
+        <v>1324.06</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" s="4">
         <v>41647</v>
       </c>
@@ -5746,7 +5759,7 @@
         <v>1328.7240999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" s="4">
         <v>41648</v>
       </c>
@@ -5766,7 +5779,7 @@
         <v>1331.9331</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="4">
         <v>41649</v>
       </c>
@@ -5786,7 +5799,7 @@
         <v>1331.6818000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="4">
         <v>41652</v>
       </c>
@@ -5806,7 +5819,7 @@
         <v>1332.1414</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="4">
         <v>41653</v>
       </c>
@@ -5826,7 +5839,7 @@
         <v>1317.3812</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="4">
         <v>41654</v>
       </c>
@@ -5846,7 +5859,7 @@
         <v>1334.8353</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="4">
         <v>41655</v>
       </c>
@@ -5866,7 +5879,7 @@
         <v>1342.5042000000001</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="4">
         <v>41656</v>
       </c>
@@ -5886,7 +5899,7 @@
         <v>1349.5675000000001</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="4">
         <v>41659</v>
       </c>
@@ -5906,7 +5919,7 @@
         <v>1350.1602</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="4">
         <v>41660</v>
       </c>
@@ -5926,7 +5939,7 @@
         <v>1352.3825999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="4">
         <v>41661</v>
       </c>
@@ -5946,7 +5959,7 @@
         <v>1351.0537999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="4">
         <v>41662</v>
       </c>
@@ -5966,7 +5979,7 @@
         <v>1352.6674</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="4">
         <v>41663</v>
       </c>
@@ -5986,7 +5999,7 @@
         <v>1331.6826000000001</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="4">
         <v>41666</v>
       </c>
@@ -6006,7 +6019,7 @@
         <v>1311.9373000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="4">
         <v>41667</v>
       </c>
@@ -6026,7 +6039,7 @@
         <v>1314.3501000000001</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="4">
         <v>41668</v>
       </c>
@@ -6046,7 +6059,7 @@
         <v>1322.6146000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="4">
         <v>41669</v>
       </c>
@@ -6066,7 +6079,7 @@
         <v>1301.2424000000001</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="4">
         <v>41670</v>
       </c>
@@ -6086,7 +6099,7 @@
         <v>1301.5028</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>41673</v>
       </c>
@@ -6106,7 +6119,7 @@
         <v>1296.7</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>41674</v>
       </c>
@@ -6126,7 +6139,7 @@
         <v>1278.9813999999999</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" s="6">
         <v>41675</v>
       </c>
@@ -6135,7 +6148,7 @@
       </c>
       <c r="C275">
         <f ca="1">RANDBETWEEN(1283.96,1295.81)</f>
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="D275" s="3">
         <v>0</v>
@@ -6145,13 +6158,13 @@
       </c>
       <c r="F275">
         <f ca="1">C275-0.1</f>
-        <v>1289.9000000000001</v>
+        <v>1285.9000000000001</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>41676</v>
       </c>
@@ -6171,7 +6184,7 @@
         <v>1305.9619</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>41677</v>
       </c>
@@ -6191,7 +6204,7 @@
         <v>1311.0182</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>41680</v>
       </c>
@@ -6211,7 +6224,7 @@
         <v>1314.7908</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>41681</v>
       </c>
@@ -6231,7 +6244,7 @@
         <v>1330.231</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>41682</v>
       </c>
@@ -6251,7 +6264,7 @@
         <v>1335.9591</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>41683</v>
       </c>
@@ -6271,7 +6284,7 @@
         <v>1322.0691999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>41684</v>
       </c>
@@ -6291,7 +6304,7 @@
         <v>1334.1439</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" s="6">
         <v>41687</v>
       </c>
@@ -6300,7 +6313,7 @@
       </c>
       <c r="C283">
         <f ca="1">RANDBETWEEN(1338.79,1345.58)</f>
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -6310,13 +6323,13 @@
       </c>
       <c r="F283">
         <f ca="1">C283+0.01</f>
-        <v>1343.01</v>
+        <v>1339.01</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>41688</v>
       </c>
@@ -6336,7 +6349,7 @@
         <v>1330.7184999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>41689</v>
       </c>
@@ -6356,7 +6369,7 @@
         <v>1326.9032</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>41690</v>
       </c>
@@ -6376,7 +6389,7 @@
         <v>1330.9713999999999</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>41691</v>
       </c>
@@ -6396,7 +6409,7 @@
         <v>1348.3969</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>41694</v>
       </c>
@@ -6416,7 +6429,7 @@
         <v>1354.5939000000001</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" s="6">
         <v>41695</v>
       </c>
@@ -6425,7 +6438,7 @@
       </c>
       <c r="C289">
         <f ca="1">RANDBETWEEN(1363.04,1372.51)</f>
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -6435,13 +6448,13 @@
       </c>
       <c r="F289">
         <f ca="1">C289+0.02</f>
-        <v>1371.02</v>
+        <v>1366.02</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>41696</v>
       </c>
@@ -6461,7 +6474,7 @@
         <v>1370.0609999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>41697</v>
       </c>
@@ -6481,7 +6494,7 @@
         <v>1360.8656000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>41698</v>
       </c>
@@ -6501,7 +6514,7 @@
         <v>1364.6056000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>41701</v>
       </c>
@@ -6521,7 +6534,7 @@
         <v>1345.8219999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>41702</v>
       </c>
@@ -6541,7 +6554,7 @@
         <v>1357.2455</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>41703</v>
       </c>
@@ -6561,7 +6574,7 @@
         <v>1366.2709</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>41704</v>
       </c>
@@ -6581,7 +6594,7 @@
         <v>1374.5117</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>41705</v>
       </c>
@@ -6601,7 +6614,7 @@
         <v>1371.8880999999999</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>41708</v>
       </c>
@@ -6621,7 +6634,7 @@
         <v>1363.0974000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>41709</v>
       </c>
@@ -6641,7 +6654,7 @@
         <v>1358.0895</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>41710</v>
       </c>
@@ -6661,7 +6674,7 @@
         <v>1344.7581</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>41711</v>
       </c>
@@ -6681,7 +6694,7 @@
         <v>1346.7224000000001</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>41712</v>
       </c>
@@ -6701,7 +6714,7 @@
         <v>1326.1837</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>41715</v>
       </c>
@@ -6721,7 +6734,7 @@
         <v>1336.2992999999999</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>41716</v>
       </c>
@@ -6741,7 +6754,7 @@
         <v>1348.5354</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>41717</v>
       </c>
@@ -6761,7 +6774,7 @@
         <v>1360.9213</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>41718</v>
       </c>
@@ -6781,7 +6794,7 @@
         <v>1344.6577</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>41719</v>
       </c>
@@ -6801,7 +6814,7 @@
         <v>1351.5120999999999</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>41722</v>
       </c>
@@ -6821,7 +6834,7 @@
         <v>1343.6623999999999</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>41723</v>
       </c>
@@ -6841,7 +6854,7 @@
         <v>1346.9031</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>41724</v>
       </c>
@@ -6861,7 +6874,7 @@
         <v>1357.7421999999999</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>41725</v>
       </c>
@@ -6881,7 +6894,7 @@
         <v>1340.9263000000001</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>41726</v>
       </c>
@@ -6901,7 +6914,7 @@
         <v>1344.2844</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>41729</v>
       </c>
@@ -6921,7 +6934,7 @@
         <v>1354.1949</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>41730</v>
       </c>
@@ -6941,7 +6954,7 @@
         <v>1369.5700999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>41731</v>
       </c>
@@ -6961,7 +6974,7 @@
         <v>1379.1603</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>41732</v>
       </c>
@@ -6981,7 +6994,7 @@
         <v>1371.0437999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>41733</v>
       </c>
@@ -7001,7 +7014,7 @@
         <v>1372.7819</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>41736</v>
       </c>
@@ -7021,7 +7034,7 @@
         <v>1362.0135</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>41737</v>
       </c>
@@ -7041,7 +7054,7 @@
         <v>1357.1890000000001</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>41738</v>
       </c>
@@ -7061,7 +7074,7 @@
         <v>1371.1751999999999</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>41739</v>
       </c>
@@ -7081,7 +7094,7 @@
         <v>1363.1732999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>41740</v>
       </c>
@@ -7101,7 +7114,7 @@
         <v>1337.8670999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>41743</v>
       </c>
@@ -7121,7 +7134,7 @@
         <v>1335.0962</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>41744</v>
       </c>
@@ -7141,7 +7154,7 @@
         <v>1333.4702</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>41745</v>
       </c>
@@ -7161,7 +7174,7 @@
         <v>1337.6664000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>41746</v>
       </c>
@@ -7181,7 +7194,7 @@
         <v>1340.4801</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>41751</v>
       </c>
@@ -7201,7 +7214,7 @@
         <v>1362.2582</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>41752</v>
       </c>
@@ -7221,7 +7234,7 @@
         <v>1357.0934999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>41753</v>
       </c>
@@ -7241,7 +7254,7 @@
         <v>1368.1696999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>41754</v>
       </c>
@@ -7261,7 +7274,7 @@
         <v>1364.2583999999999</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>41757</v>
       </c>
@@ -7281,7 +7294,7 @@
         <v>1361.5621000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>41758</v>
       </c>
@@ -7301,7 +7314,7 @@
         <v>1367.6934000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>41759</v>
       </c>
@@ -7321,7 +7334,7 @@
         <v>1364.2366999999999</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>41761</v>
       </c>
@@ -7341,7 +7354,7 @@
         <v>1365.6786999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>41764</v>
       </c>
@@ -7361,7 +7374,7 @@
         <v>1349.2230999999999</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>41765</v>
       </c>
@@ -7381,7 +7394,7 @@
         <v>1358.9572000000001</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>41766</v>
       </c>
@@ -7401,7 +7414,7 @@
         <v>1345.431</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>41767</v>
       </c>
@@ -7421,7 +7434,7 @@
         <v>1349.0509</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>41768</v>
       </c>
@@ -7441,7 +7454,7 @@
         <v>1354.5706</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>41771</v>
       </c>
@@ -7461,7 +7474,7 @@
         <v>1360.1985</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>41772</v>
       </c>
@@ -7481,7 +7494,7 @@
         <v>1369.8987</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>41773</v>
       </c>
@@ -7501,7 +7514,7 @@
         <v>1372.3903</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>41774</v>
       </c>
@@ -7521,7 +7534,7 @@
         <v>1382.2380000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>41775</v>
       </c>
@@ -7541,7 +7554,7 @@
         <v>1379.1736000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>41778</v>
       </c>
@@ -7561,7 +7574,7 @@
         <v>1374.8666000000001</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>41779</v>
       </c>
@@ -7581,7 +7594,7 @@
         <v>1381.4474</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>41780</v>
       </c>
@@ -7601,7 +7614,7 @@
         <v>1377.8595</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>41781</v>
       </c>
@@ -7621,7 +7634,7 @@
         <v>1385.2991999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>41782</v>
       </c>
@@ -7641,7 +7654,7 @@
         <v>1383.6791000000001</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>41785</v>
       </c>
@@ -7661,7 +7674,7 @@
         <v>1394.1105</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>41786</v>
       </c>
@@ -7681,7 +7694,7 @@
         <v>1392.7620999999999</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>41787</v>
       </c>
@@ -7701,7 +7714,7 @@
         <v>1392.1768</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>41789</v>
       </c>
@@ -7721,7 +7734,7 @@
         <v>1401.8141000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>41792</v>
       </c>
@@ -7741,7 +7754,7 @@
         <v>1401.7194</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>41793</v>
       </c>
@@ -7761,7 +7774,7 @@
         <v>1395.8834999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>41794</v>
       </c>
@@ -7781,7 +7794,7 @@
         <v>1394.2625</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>41795</v>
       </c>
@@ -7801,7 +7814,7 @@
         <v>1393.8873000000001</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>41799</v>
       </c>
@@ -7821,7 +7834,7 @@
         <v>1405.1332</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>41800</v>
       </c>
@@ -7841,7 +7854,7 @@
         <v>1405.1785</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>41801</v>
       </c>
@@ -7861,7 +7874,7 @@
         <v>1403.4275</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>41802</v>
       </c>
@@ -7881,7 +7894,7 @@
         <v>1401.5715</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>41803</v>
       </c>
@@ -7901,7 +7914,7 @@
         <v>1390.0662</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>41806</v>
       </c>
@@ -7921,7 +7934,7 @@
         <v>1383.1812</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>41807</v>
       </c>
@@ -7941,7 +7954,7 @@
         <v>1387.7529</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>41808</v>
       </c>
@@ -7961,7 +7974,7 @@
         <v>1388.1835000000001</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>41809</v>
       </c>
@@ -7981,7 +7994,7 @@
         <v>1385.1094000000001</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>41813</v>
       </c>
@@ -8001,7 +8014,7 @@
         <v>1392.5334</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>41814</v>
       </c>
@@ -8021,7 +8034,7 @@
         <v>1394.9987000000001</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>41815</v>
       </c>
@@ -8041,7 +8054,7 @@
         <v>1390.1880000000001</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>41816</v>
       </c>
@@ -8061,7 +8074,7 @@
         <v>1378.3303000000001</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>41817</v>
       </c>
@@ -8081,7 +8094,7 @@
         <v>1375.7103999999999</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>41820</v>
       </c>
@@ -8101,7 +8114,7 @@
         <v>1380.7643</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>41821</v>
       </c>
@@ -8121,7 +8134,7 @@
         <v>1377.5619999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>41822</v>
       </c>
@@ -8141,7 +8154,7 @@
         <v>1387.3340000000001</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>41823</v>
       </c>
@@ -8161,7 +8174,7 @@
         <v>1401.8715</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>41824</v>
       </c>
@@ -8181,7 +8194,7 @@
         <v>1407.9313999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>41827</v>
       </c>
@@ -8201,7 +8214,7 @@
         <v>1401.6813999999999</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>41828</v>
       </c>
@@ -8221,7 +8234,7 @@
         <v>1393.0099</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>41829</v>
       </c>
@@ -8241,7 +8254,7 @@
         <v>1377.3431</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>41830</v>
       </c>
@@ -8261,7 +8274,7 @@
         <v>1360.0148999999999</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>41831</v>
       </c>
@@ -8281,7 +8294,7 @@
         <v>1365.6352999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>41834</v>
       </c>
@@ -8301,7 +8314,7 @@
         <v>1376.6819</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>41835</v>
       </c>
@@ -8321,7 +8334,7 @@
         <v>1378.0068000000001</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>41836</v>
       </c>
@@ -8341,7 +8354,7 @@
         <v>1385.5413000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>41837</v>
       </c>
@@ -8361,7 +8374,7 @@
         <v>1388.4794999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>41838</v>
       </c>
@@ -8381,7 +8394,7 @@
         <v>1381.8264999999999</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>41841</v>
       </c>
@@ -8401,7 +8414,7 @@
         <v>1382.307</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>41842</v>
       </c>
@@ -8421,7 +8434,7 @@
         <v>1396.5021999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>41843</v>
       </c>
@@ -8441,7 +8454,7 @@
         <v>1400.3244999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>41844</v>
       </c>
@@ -8461,7 +8474,7 @@
         <v>1404.8656000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>41845</v>
       </c>
@@ -8481,7 +8494,7 @@
         <v>1404.6931999999999</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>41848</v>
       </c>
@@ -8501,7 +8514,7 @@
         <v>1401.1094000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>41849</v>
       </c>
@@ -8521,7 +8534,7 @@
         <v>1397.9331999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>41850</v>
       </c>
@@ -8541,7 +8554,7 @@
         <v>1398.1736000000001</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>41851</v>
       </c>
@@ -8561,7 +8574,7 @@
         <v>1384.6581000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>41852</v>
       </c>
@@ -8581,7 +8594,7 @@
         <v>1368.1487999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>41855</v>
       </c>
@@ -8601,7 +8614,7 @@
         <v>1368.7137</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>41856</v>
       </c>
@@ -8621,7 +8634,7 @@
         <v>1365.3915999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>41857</v>
       </c>
@@ -8641,7 +8654,7 @@
         <v>1346.2757999999999</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>41858</v>
       </c>
@@ -8661,7 +8674,7 @@
         <v>1347.0695000000001</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>41859</v>
       </c>
@@ -8681,7 +8694,7 @@
         <v>1328.9652000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>41862</v>
       </c>
@@ -8701,7 +8714,7 @@
         <v>1346.1126999999999</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>41863</v>
       </c>
@@ -8721,7 +8734,7 @@
         <v>1354.4592</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>41864</v>
       </c>
@@ -8741,7 +8754,7 @@
         <v>1358.0251000000001</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>41865</v>
       </c>
@@ -8761,7 +8774,7 @@
         <v>1353.0381</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>41866</v>
       </c>
@@ -8781,7 +8794,7 @@
         <v>1361.8333</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>41869</v>
       </c>
@@ -8801,7 +8814,7 @@
         <v>1363.0038</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>41870</v>
       </c>
@@ -8821,7 +8834,7 @@
         <v>1372.0875000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>41871</v>
       </c>
@@ -8841,7 +8854,7 @@
         <v>1374.5491</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>41872</v>
       </c>
@@ -8861,7 +8874,7 @@
         <v>1380.7067999999999</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>41873</v>
       </c>
@@ -8881,7 +8894,7 @@
         <v>1382.3043</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>41876</v>
       </c>
@@ -8901,7 +8914,7 @@
         <v>1386.6172999999999</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>41877</v>
       </c>
@@ -8921,7 +8934,7 @@
         <v>1390.2498000000001</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>41878</v>
       </c>
@@ -8941,7 +8954,7 @@
         <v>1395.5889999999999</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>41879</v>
       </c>
@@ -8961,7 +8974,7 @@
         <v>1381.3911000000001</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>41880</v>
       </c>
@@ -8981,7 +8994,7 @@
         <v>1385.5585000000001</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>41883</v>
       </c>
@@ -9001,7 +9014,7 @@
         <v>1385.3191999999999</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>41884</v>
       </c>
@@ -9021,7 +9034,7 @@
         <v>1390.2819</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>41885</v>
       </c>
@@ -9041,7 +9054,7 @@
         <v>1399.7799</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>41886</v>
       </c>
@@ -9061,7 +9074,7 @@
         <v>1395.373</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>41887</v>
       </c>
@@ -9081,7 +9094,7 @@
         <v>1388.2627</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>41890</v>
       </c>
@@ -9101,7 +9114,7 @@
         <v>1389.6388999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423" s="6">
         <v>41891</v>
       </c>
@@ -9126,7 +9139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>41892</v>
       </c>
@@ -9146,7 +9159,7 @@
         <v>1380.7745</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>41893</v>
       </c>
@@ -9166,7 +9179,7 @@
         <v>1390.3297</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>41894</v>
       </c>
@@ -9186,7 +9199,7 @@
         <v>1384.8420000000001</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>41897</v>
       </c>
@@ -9206,7 +9219,7 @@
         <v>1391.4258</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>41898</v>
       </c>
@@ -9226,7 +9239,7 @@
         <v>1390.8009</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>41899</v>
       </c>
@@ -9246,7 +9259,7 @@
         <v>1406.2439999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>41900</v>
       </c>
@@ -9266,7 +9279,7 @@
         <v>1412.8933</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>41901</v>
       </c>
@@ -9286,7 +9299,7 @@
         <v>1420.4771000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>41904</v>
       </c>
@@ -9306,7 +9319,7 @@
         <v>1418.7950000000001</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>41906</v>
       </c>
@@ -9326,7 +9339,7 @@
         <v>1402.6836000000001</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>41907</v>
       </c>
@@ -9346,7 +9359,7 @@
         <v>1407.7203</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>41908</v>
       </c>
@@ -9366,7 +9379,7 @@
         <v>1396.8638000000001</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>41911</v>
       </c>
@@ -9386,7 +9399,7 @@
         <v>1394.6196</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>41912</v>
       </c>
@@ -9406,7 +9419,7 @@
         <v>1394.4166</v>
       </c>
     </row>
-    <row r="438" spans="1:7" s="9" customFormat="1">
+    <row r="438" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="8">
         <v>41913</v>
       </c>
@@ -9426,7 +9439,7 @@
         <v>1392.3757000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" s="6">
         <v>41914</v>
       </c>
@@ -9441,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" s="6">
         <v>41915</v>
       </c>
@@ -9456,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" s="6">
         <v>41918</v>
       </c>
@@ -9471,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:7" s="9" customFormat="1">
+    <row r="442" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="8">
         <v>41919</v>
       </c>
@@ -9491,7 +9504,7 @@
         <v>1349.9022</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" s="6">
         <v>41920</v>
       </c>
@@ -9506,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" s="6">
         <v>41921</v>
       </c>
@@ -9521,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" s="6">
         <v>41922</v>
       </c>
@@ -9536,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>41925</v>
       </c>
@@ -9557,7 +9570,7 @@
       </c>
       <c r="G446" s="5"/>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" s="6">
         <v>41926</v>
       </c>
@@ -9568,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448" s="6">
         <v>41927</v>
       </c>
@@ -9579,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449" s="6">
         <v>41928</v>
       </c>
@@ -9590,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>41929</v>
       </c>
@@ -9611,7 +9624,7 @@
       </c>
       <c r="G450" s="5"/>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451" s="6">
         <v>41932</v>
       </c>
@@ -9622,7 +9635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452" s="6">
         <v>41933</v>
       </c>
@@ -9633,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>41934</v>
       </c>
@@ -9653,7 +9666,7 @@
         <v>1340.1047000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>41935</v>
       </c>
@@ -9673,7 +9686,7 @@
         <v>1352.8348000000001</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>41936</v>
       </c>
@@ -9693,7 +9706,7 @@
         <v>1362.0867000000001</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>41939</v>
       </c>
@@ -9713,7 +9726,7 @@
         <v>1358.5250000000001</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>41940</v>
       </c>
@@ -9733,7 +9746,7 @@
         <v>1375.1980000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>41941</v>
       </c>
@@ -9753,7 +9766,7 @@
         <v>1387.4393</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>41942</v>
       </c>
@@ -9773,7 +9786,7 @@
         <v>1381.9640999999999</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>41943</v>
       </c>
@@ -9793,7 +9806,7 @@
         <v>1407.6223</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461" s="4">
         <v>41946</v>
       </c>
@@ -9813,7 +9826,7 @@
         <v>1406.2034000000001</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462" s="4">
         <v>41947</v>
       </c>
@@ -9833,7 +9846,7 @@
         <v>1402.3375000000001</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463" s="4">
         <v>41948</v>
       </c>
@@ -9853,7 +9866,7 @@
         <v>1408.9350999999999</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464" s="4">
         <v>41949</v>
       </c>
@@ -9873,7 +9886,7 @@
         <v>1409.4920999999999</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="4">
         <v>41950</v>
       </c>
@@ -9893,7 +9906,7 @@
         <v>1416.4901</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="4">
         <v>41953</v>
       </c>
@@ -9913,7 +9926,7 @@
         <v>1415.0424</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="4">
         <v>41954</v>
       </c>
@@ -9933,7 +9946,7 @@
         <v>1422.6412</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="4">
         <v>41955</v>
       </c>
@@ -9953,7 +9966,7 @@
         <v>1417.8651</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="4">
         <v>41956</v>
       </c>
@@ -9973,7 +9986,7 @@
         <v>1422.4541999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="4">
         <v>41957</v>
       </c>
@@ -9993,7 +10006,7 @@
         <v>1414.5608999999999</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="4">
         <v>41960</v>
       </c>
@@ -10013,7 +10026,7 @@
         <v>1412.1367</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="4">
         <v>41961</v>
       </c>
@@ -10033,7 +10046,7 @@
         <v>1425.8574000000001</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="4">
         <v>41962</v>
       </c>
@@ -10053,7 +10066,7 @@
         <v>1430.1777</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="4">
         <v>41963</v>
       </c>
@@ -10073,7 +10086,7 @@
         <v>1423.6913</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="4">
         <v>41964</v>
       </c>
@@ -10093,7 +10106,7 @@
         <v>1437.9503999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="4">
         <v>41967</v>
       </c>
@@ -10113,7 +10126,7 @@
         <v>1451.3398</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="4">
         <v>41968</v>
       </c>
@@ -10133,7 +10146,7 @@
         <v>1464.9265</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="4">
         <v>41969</v>
       </c>
@@ -10153,7 +10166,7 @@
         <v>1462.7644</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="4">
         <v>41970</v>
       </c>
@@ -10173,7 +10186,7 @@
         <v>1464.077</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="4">
         <v>41971</v>
       </c>
@@ -10193,7 +10206,7 @@
         <v>1455.6519000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>41974</v>
       </c>
@@ -10213,7 +10226,7 @@
         <v>1454.1338000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>41975</v>
       </c>
@@ -10233,7 +10246,7 @@
         <v>1452.412</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>41976</v>
       </c>
@@ -10253,7 +10266,7 @@
         <v>1457.3032000000001</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>41977</v>
       </c>
@@ -10273,7 +10286,7 @@
         <v>1467.7234000000001</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>41978</v>
       </c>
@@ -10293,7 +10306,7 @@
         <v>1467.0443</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>41981</v>
       </c>
@@ -10313,7 +10326,7 @@
         <v>1469.5608999999999</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>41982</v>
       </c>
@@ -10333,7 +10346,7 @@
         <v>1464.1676</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>41983</v>
       </c>
@@ -10353,7 +10366,7 @@
         <v>1461.0902000000001</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>41984</v>
       </c>
@@ -10373,7 +10386,7 @@
         <v>1450.6980000000001</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>41985</v>
       </c>
@@ -10393,7 +10406,7 @@
         <v>1440.5065</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>41988</v>
       </c>
@@ -10413,7 +10426,7 @@
         <v>1433.6610000000001</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="8">
         <v>41988</v>
       </c>
@@ -10433,7 +10446,7 @@
         <v>1433.6610000000001</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>41990</v>
       </c>
@@ -10453,7 +10466,7 @@
         <v>1406.1772000000001</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>41991</v>
       </c>
@@ -10473,7 +10486,7 @@
         <v>1426.6168</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>41992</v>
       </c>
@@ -10493,7 +10506,7 @@
         <v>1443.0574999999999</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>41995</v>
       </c>
@@ -10513,7 +10526,7 @@
         <v>1462.6273000000001</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>41996</v>
       </c>
@@ -10533,7 +10546,7 @@
         <v>1463.5160000000001</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>42002</v>
       </c>
@@ -10553,7 +10566,7 @@
         <v>1477.5896</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>42003</v>
       </c>
@@ -10573,7 +10586,7 @@
         <v>1471.1455000000001</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500" s="4">
         <v>42006</v>
       </c>
@@ -10593,7 +10606,7 @@
         <v>1469.5532000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501" s="4">
         <v>42009</v>
       </c>
@@ -10613,7 +10626,7 @@
         <v>1454.6709000000001</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502" s="4">
         <v>42011</v>
       </c>
@@ -10633,7 +10646,7 @@
         <v>1440.2393</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503" s="4">
         <v>42012</v>
       </c>
@@ -10653,7 +10666,7 @@
         <v>1436.6984</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504" s="4">
         <v>42013</v>
       </c>
@@ -10673,7 +10686,7 @@
         <v>1454.3634</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505" s="6">
         <v>42016</v>
       </c>
@@ -10682,7 +10695,7 @@
       </c>
       <c r="C505" s="3">
         <f ca="1">RANDBETWEEN(1444.55,1460.11)</f>
-        <v>1455</v>
+        <v>1447</v>
       </c>
       <c r="D505" s="3">
         <v>0</v>
@@ -10692,13 +10705,13 @@
       </c>
       <c r="F505" s="3">
         <f ca="1">C505-0.1</f>
-        <v>1454.9</v>
+        <v>1446.9</v>
       </c>
       <c r="G505" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506" s="4">
         <v>42017</v>
       </c>
@@ -10718,7 +10731,7 @@
         <v>1457.2963999999999</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507" s="4">
         <v>42018</v>
       </c>
@@ -10738,7 +10751,7 @@
         <v>1454.6075000000001</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508" s="4">
         <v>42019</v>
       </c>
@@ -10758,7 +10771,7 @@
         <v>1433.5510999999999</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509" s="4">
         <v>42020</v>
       </c>
@@ -10778,7 +10791,7 @@
         <v>1452.6791000000001</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510" s="4">
         <v>42023</v>
       </c>
@@ -10798,7 +10811,7 @@
         <v>1468.9637</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511" s="4">
         <v>42024</v>
       </c>
@@ -10818,7 +10831,7 @@
         <v>1492.4186</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512" s="4">
         <v>42025</v>
       </c>
@@ -10838,7 +10851,7 @@
         <v>1487.1873000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513" s="4">
         <v>42026</v>
       </c>
@@ -10858,7 +10871,7 @@
         <v>1512.8976</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514" s="4">
         <v>42027</v>
       </c>
@@ -10878,7 +10891,7 @@
         <v>1534.6105</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515" s="4">
         <v>42030</v>
       </c>
@@ -10898,7 +10911,7 @@
         <v>1543.3818000000001</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516" s="4">
         <v>42031</v>
       </c>
@@ -10918,7 +10931,7 @@
         <v>1546.6524999999999</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517" s="4">
         <v>42032</v>
       </c>
@@ -10938,7 +10951,7 @@
         <v>1543.1018999999999</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518" s="4">
         <v>42033</v>
       </c>
@@ -10958,7 +10971,7 @@
         <v>1559.3632</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519" s="4">
         <v>42034</v>
       </c>
@@ -10978,7 +10991,7 @@
         <v>1575.6172999999999</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>42037</v>
       </c>
@@ -10998,7 +11011,7 @@
         <v>1569.1896999999999</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>42038</v>
       </c>
@@ -11018,7 +11031,7 @@
         <v>1589.0652</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>42039</v>
       </c>
@@ -11038,7 +11051,7 @@
         <v>1578.1831999999999</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>42040</v>
       </c>
@@ -11058,7 +11071,7 @@
         <v>1581.8191999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>42041</v>
       </c>
@@ -11078,7 +11091,7 @@
         <v>1585.5911000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="6">
         <v>42044</v>
       </c>
@@ -11087,7 +11100,7 @@
       </c>
       <c r="C525">
         <f ca="1">RANDBETWEEN(1582.56,1593.18)</f>
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -11097,13 +11110,13 @@
       </c>
       <c r="F525">
         <f ca="1">C525+0.01</f>
-        <v>1588.01</v>
+        <v>1591.01</v>
       </c>
       <c r="G525" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>42045</v>
       </c>
@@ -11123,7 +11136,7 @@
         <v>1591.1364000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>42046</v>
       </c>
@@ -11143,7 +11156,7 @@
         <v>1593.3801000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>42047</v>
       </c>
@@ -11163,7 +11176,7 @@
         <v>1620.8322000000001</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>42048</v>
       </c>
@@ -11183,7 +11196,7 @@
         <v>1637.1106</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>42051</v>
       </c>
@@ -11203,7 +11216,7 @@
         <v>1638.3756000000001</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>42052</v>
       </c>
@@ -11223,7 +11236,7 @@
         <v>1634.6304</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>42053</v>
       </c>
@@ -11243,7 +11256,7 @@
         <v>1647.337</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>42054</v>
       </c>
@@ -11263,7 +11276,7 @@
         <v>1657.9132999999999</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>42055</v>
       </c>
@@ -11283,7 +11296,7 @@
         <v>1662.8655000000001</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>42058</v>
       </c>
@@ -11303,7 +11316,7 @@
         <v>1670.3757000000001</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>42059</v>
       </c>
@@ -11323,7 +11336,7 @@
         <v>1676.7774999999999</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>42060</v>
       </c>
@@ -11343,7 +11356,7 @@
         <v>1680.3187</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>42061</v>
       </c>
@@ -11363,7 +11376,7 @@
         <v>1682.4685999999999</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>42062</v>
       </c>
@@ -11383,7 +11396,7 @@
         <v>1682.9131</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>42065</v>
       </c>
@@ -11403,7 +11416,7 @@
         <v>1697.0137999999999</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>42066</v>
       </c>
@@ -11423,7 +11436,7 @@
         <v>1684.6102000000001</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>42067</v>
       </c>
@@ -11443,7 +11456,7 @@
         <v>1645.6896999999999</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>42068</v>
       </c>
@@ -11463,7 +11476,7 @@
         <v>1673.9611</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>42069</v>
       </c>
@@ -11483,7 +11496,7 @@
         <v>1672.1193000000001</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>42072</v>
       </c>
@@ -11503,7 +11516,7 @@
         <v>1652.2620999999999</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>42073</v>
       </c>
@@ -11523,7 +11536,7 @@
         <v>1653.0913</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>42074</v>
       </c>
@@ -11543,7 +11556,7 @@
         <v>1654.5147999999999</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>42075</v>
       </c>
@@ -11563,7 +11576,7 @@
         <v>1657.6652999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>42076</v>
       </c>
@@ -11583,7 +11596,7 @@
         <v>1666.7802999999999</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" s="6">
         <v>42079</v>
       </c>
@@ -11592,7 +11605,7 @@
       </c>
       <c r="C550">
         <f ca="1">RANDBETWEEN(1671.06,1690.27)</f>
-        <v>1683</v>
+        <v>1688</v>
       </c>
       <c r="D550">
         <v>0</v>
@@ -11602,13 +11615,13 @@
       </c>
       <c r="F550">
         <f ca="1">C550+0.01</f>
-        <v>1683.01</v>
+        <v>1688.01</v>
       </c>
       <c r="G550" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>42080</v>
       </c>
@@ -11628,7 +11641,7 @@
         <v>1671.0706</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>42081</v>
       </c>
@@ -11648,7 +11661,7 @@
         <v>1674.4309000000001</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>42082</v>
       </c>
@@ -11668,7 +11681,7 @@
         <v>1711.4514999999999</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>42083</v>
       </c>
@@ -11688,7 +11701,7 @@
         <v>1701.7647999999999</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>42086</v>
       </c>
@@ -11708,7 +11721,7 @@
         <v>1697.4032999999999</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>42087</v>
       </c>
@@ -11728,7 +11741,7 @@
         <v>1700.9657</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>42088</v>
       </c>
@@ -11748,7 +11761,7 @@
         <v>1703.3643</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>42089</v>
       </c>
@@ -11768,7 +11781,7 @@
         <v>1661.1724999999999</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>42090</v>
       </c>
@@ -11788,7 +11801,7 @@
         <v>1676.9350999999999</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>42093</v>
       </c>
@@ -11808,7 +11821,7 @@
         <v>1679.0293999999999</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>42094</v>
       </c>
@@ -11828,7 +11841,7 @@
         <v>1681.1771000000001</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>42095</v>
       </c>
@@ -11848,7 +11861,7 @@
         <v>1676.4078</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>42096</v>
       </c>
@@ -11868,7 +11881,7 @@
         <v>1674.1959999999999</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>42101</v>
       </c>
@@ -11888,7 +11901,7 @@
         <v>1693.1696999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>42102</v>
       </c>
@@ -11908,7 +11921,7 @@
         <v>1697.8362</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>42103</v>
       </c>
@@ -11928,7 +11941,7 @@
         <v>1690.7344000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>42104</v>
       </c>
@@ -11948,7 +11961,7 @@
         <v>1693.9945</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>42107</v>
       </c>
@@ -11968,7 +11981,7 @@
         <v>1696.2648999999999</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>42108</v>
       </c>
@@ -11988,7 +12001,7 @@
         <v>1698.1731</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>42109</v>
       </c>
@@ -12008,7 +12021,7 @@
         <v>1711.1409000000001</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>42110</v>
       </c>
@@ -12028,7 +12041,7 @@
         <v>1702.4619</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>42111</v>
       </c>
@@ -12048,7 +12061,7 @@
         <v>1676.854</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>42114</v>
       </c>
@@ -12068,7 +12081,7 @@
         <v>1673.8258000000001</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>42115</v>
       </c>
@@ -12088,7 +12101,7 @@
         <v>1683.0154</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>42116</v>
       </c>
@@ -12108,7 +12121,7 @@
         <v>1691.1206</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>42117</v>
       </c>
@@ -12128,7 +12141,7 @@
         <v>1693.6706999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>42118</v>
       </c>
@@ -12148,7 +12161,7 @@
         <v>1694.4384</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>42121</v>
       </c>
@@ -12168,7 +12181,7 @@
         <v>1702.0543</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>42122</v>
       </c>
@@ -12188,7 +12201,7 @@
         <v>1693.9199000000001</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>42123</v>
       </c>
@@ -12208,7 +12221,7 @@
         <v>1656.7484999999999</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>42124</v>
       </c>
@@ -12228,7 +12241,7 @@
         <v>1635.2689</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>42128</v>
       </c>
@@ -12248,7 +12261,7 @@
         <v>1640.0199</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>42129</v>
       </c>
@@ -12268,7 +12281,7 @@
         <v>1626.7637999999999</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>42130</v>
       </c>
@@ -12288,7 +12301,7 @@
         <v>1590.4464</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>42131</v>
       </c>
@@ -12308,7 +12321,7 @@
         <v>1567.0281</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>42132</v>
       </c>
@@ -12328,7 +12341,7 @@
         <v>1587.5281</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>42135</v>
       </c>
@@ -12348,7 +12361,7 @@
         <v>1613.0736999999999</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>42136</v>
       </c>
@@ -12368,7 +12381,7 @@
         <v>1593.9576</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>42137</v>
       </c>
@@ -12388,7 +12401,7 @@
         <v>1612.8712</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>42139</v>
       </c>
@@ -12408,7 +12421,7 @@
         <v>1629.8878</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>42142</v>
       </c>
@@ -12428,7 +12441,7 @@
         <v>1619.2959000000001</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>42143</v>
       </c>
@@ -12448,7 +12461,7 @@
         <v>1626.0328</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>42144</v>
       </c>
@@ -12468,7 +12481,7 @@
         <v>1633.9054000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>42145</v>
       </c>
@@ -12488,7 +12501,7 @@
         <v>1632.5631000000001</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>42146</v>
       </c>
@@ -12508,7 +12521,7 @@
         <v>1642.1473000000001</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>42149</v>
       </c>
@@ -12528,7 +12541,7 @@
         <v>1644.2647999999999</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>42150</v>
       </c>
@@ -12548,7 +12561,7 @@
         <v>1648.8715</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>42151</v>
       </c>
@@ -12568,7 +12581,7 @@
         <v>1647.3870999999999</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>42152</v>
       </c>
@@ -12588,7 +12601,7 @@
         <v>1663.5509</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>42153</v>
       </c>
@@ -12608,7 +12621,7 @@
         <v>1655.2532000000001</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>42156</v>
       </c>
@@ -12628,7 +12641,7 @@
         <v>1646.8676</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>42157</v>
       </c>
@@ -12648,7 +12661,7 @@
         <v>1637.6723999999999</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>42158</v>
       </c>
@@ -12668,7 +12681,7 @@
         <v>1643.8435999999999</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>42159</v>
       </c>
@@ -12688,7 +12701,7 @@
         <v>1625.1533999999999</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>42160</v>
       </c>
@@ -12708,7 +12721,7 @@
         <v>1608.5889999999999</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>42163</v>
       </c>
@@ -12728,7 +12741,7 @@
         <v>1602.4636</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>42164</v>
       </c>
@@ -12748,7 +12761,7 @@
         <v>1573.0542</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>42165</v>
       </c>
@@ -12768,7 +12781,7 @@
         <v>1598.3744999999999</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>42166</v>
       </c>
@@ -12788,7 +12801,7 @@
         <v>1613.7009</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>42167</v>
       </c>
@@ -12808,7 +12821,7 @@
         <v>1609.7937999999999</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>42170</v>
       </c>
@@ -12828,7 +12841,7 @@
         <v>1571.3414</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>42171</v>
       </c>
@@ -12848,7 +12861,7 @@
         <v>1559.7365</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>42172</v>
       </c>
@@ -12868,7 +12881,7 @@
         <v>1574.6134999999999</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>42173</v>
       </c>
@@ -12888,7 +12901,7 @@
         <v>1548.2688000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>42177</v>
       </c>
@@ -12908,7 +12921,7 @@
         <v>1589.8068000000001</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>42178</v>
       </c>
@@ -12928,7 +12941,7 @@
         <v>1620.7311999999999</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>42179</v>
       </c>
@@ -12948,7 +12961,7 @@
         <v>1608.4695999999999</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>42180</v>
       </c>
@@ -12968,7 +12981,7 @@
         <v>1605.3069</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>42181</v>
       </c>
@@ -12988,7 +13001,7 @@
         <v>1591.8105</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>42184</v>
       </c>
@@ -13008,7 +13021,7 @@
         <v>1570.4603</v>
       </c>
     </row>
-    <row r="621" spans="1:7" s="5" customFormat="1">
+    <row r="621" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A621" s="8">
         <v>42185</v>
       </c>
@@ -13031,7 +13044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>42186</v>
       </c>
@@ -13051,7 +13064,7 @@
         <v>1569.0690999999999</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>42187</v>
       </c>
@@ -13071,7 +13084,7 @@
         <v>1562.8594000000001</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>42188</v>
       </c>
@@ -13091,7 +13104,7 @@
         <v>1559.1270999999999</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>42191</v>
       </c>
@@ -13111,7 +13124,7 @@
         <v>1537.9495999999999</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>42192</v>
       </c>
@@ -13131,7 +13144,7 @@
         <v>1535.1486</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>42193</v>
       </c>
@@ -13151,7 +13164,7 @@
         <v>1516.2366</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>42194</v>
       </c>
@@ -13171,7 +13184,7 @@
         <v>1540.9287999999999</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>42195</v>
       </c>
@@ -13191,7 +13204,7 @@
         <v>1579.7478000000001</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>42198</v>
       </c>
@@ -13211,7 +13224,7 @@
         <v>1614.4051999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>42199</v>
       </c>
@@ -13231,7 +13244,7 @@
         <v>1607.7561000000001</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>42200</v>
       </c>
@@ -13251,7 +13264,7 @@
         <v>1606.6899000000001</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>42201</v>
       </c>
@@ -13271,7 +13284,7 @@
         <v>1635.2688000000001</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>42202</v>
       </c>
@@ -13291,7 +13304,7 @@
         <v>1635.0608</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>42205</v>
       </c>
@@ -13311,7 +13324,7 @@
         <v>1655.1786999999999</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>42206</v>
       </c>
@@ -13331,7 +13344,7 @@
         <v>1651.0003999999999</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>42207</v>
       </c>
@@ -13351,7 +13364,7 @@
         <v>1628.6204</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>42208</v>
       </c>
@@ -13371,7 +13384,7 @@
         <v>1623.0227</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>42209</v>
       </c>
@@ -13391,7 +13404,7 @@
         <v>1623.1116</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>42212</v>
       </c>
@@ -13411,7 +13424,7 @@
         <v>1594.7113999999999</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>42213</v>
       </c>
@@ -13431,7 +13444,7 @@
         <v>1592.3964000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>42214</v>
       </c>
@@ -13451,7 +13464,7 @@
         <v>1589.1392000000001</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>42215</v>
       </c>
@@ -13471,7 +13484,7 @@
         <v>1607.1256000000001</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>42216</v>
       </c>
@@ -13491,7 +13504,7 @@
         <v>1602.3761</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>42219</v>
       </c>
@@ -13511,7 +13524,7 @@
         <v>1616.2898</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>42220</v>
       </c>
@@ -13531,7 +13544,7 @@
         <v>1613.7008000000001</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>42221</v>
       </c>
@@ -13551,7 +13564,7 @@
         <v>1623.3376000000001</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>42222</v>
       </c>
@@ -13571,7 +13584,7 @@
         <v>1622.6006</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>42223</v>
       </c>
@@ -13591,7 +13604,7 @@
         <v>1621.0165999999999</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>42226</v>
       </c>
@@ -13611,7 +13624,7 @@
         <v>1617.1323</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>42227</v>
       </c>
@@ -13631,7 +13644,7 @@
         <v>1622.3668</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>42228</v>
       </c>
@@ -13651,7 +13664,7 @@
         <v>1588.2075</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>42229</v>
       </c>
@@ -13671,7 +13684,7 @@
         <v>1595.3296</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>42230</v>
       </c>
@@ -13691,7 +13704,7 @@
         <v>1589.3362</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>42233</v>
       </c>
@@ -13711,7 +13724,7 @@
         <v>1591.5497</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>42234</v>
       </c>
@@ -13731,7 +13744,7 @@
         <v>1585.0632000000001</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>42235</v>
       </c>
@@ -13751,7 +13764,7 @@
         <v>1565.366</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>42236</v>
       </c>
@@ -13771,7 +13784,7 @@
         <v>1547.7245</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>42237</v>
       </c>
@@ -13791,7 +13804,7 @@
         <v>1527.0820000000001</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>42240</v>
       </c>
@@ -13811,7 +13824,7 @@
         <v>1463.9012</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>42241</v>
       </c>
@@ -13831,7 +13844,7 @@
         <v>1468.0128999999999</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>42242</v>
       </c>
@@ -13851,7 +13864,7 @@
         <v>1461.8263999999999</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>42243</v>
       </c>
@@ -13871,7 +13884,7 @@
         <v>1498.2379000000001</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>42244</v>
       </c>
@@ -13891,7 +13904,7 @@
         <v>1500.8554999999999</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>42247</v>
       </c>
@@ -13911,7 +13924,7 @@
         <v>1499.8756000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>42248</v>
       </c>
@@ -13931,7 +13944,7 @@
         <v>1473.3868</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>42249</v>
       </c>
@@ -13951,7 +13964,7 @@
         <v>1468.8824</v>
       </c>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>42250</v>
       </c>
@@ -13971,7 +13984,7 @@
         <v>1488.3073999999999</v>
       </c>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>42251</v>
       </c>
@@ -13991,7 +14004,7 @@
         <v>1475.3878</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>42254</v>
       </c>
@@ -14011,7 +14024,7 @@
         <v>1470.6282000000001</v>
       </c>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>42255</v>
       </c>
@@ -14031,7 +14044,7 @@
         <v>1495.2126000000001</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>42256</v>
       </c>
@@ -14051,7 +14064,7 @@
         <v>1519.6781000000001</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>42257</v>
       </c>
@@ -14071,7 +14084,7 @@
         <v>1502.1790000000001</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>42258</v>
       </c>
@@ -14091,7 +14104,7 @@
         <v>1490.2897</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>42261</v>
       </c>
@@ -14111,7 +14124,7 @@
         <v>1477.4297999999999</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>42262</v>
       </c>
@@ -14131,7 +14144,7 @@
         <v>1454.0553</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>42263</v>
       </c>
@@ -14151,7 +14164,7 @@
         <v>1481.1631</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>42264</v>
       </c>
@@ -14171,7 +14184,7 @@
         <v>1484.4613999999999</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>42265</v>
       </c>
@@ -14191,7 +14204,7 @@
         <v>1457.9341999999999</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>42268</v>
       </c>
@@ -14211,7 +14224,7 @@
         <v>1455.7734</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>42269</v>
       </c>
@@ -14231,7 +14244,7 @@
         <v>1435.8118999999999</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>42270</v>
       </c>
@@ -14251,7 +14264,7 @@
         <v>1427.3541</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A683" s="6">
         <v>42271</v>
       </c>
@@ -14260,7 +14273,7 @@
       </c>
       <c r="C683">
         <f ca="1">RANDBETWEEN(1378.94,1424.2)</f>
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="D683">
         <v>0</v>
@@ -14270,13 +14283,13 @@
       </c>
       <c r="F683">
         <f ca="1">C683-0.05</f>
-        <v>1414.95</v>
+        <v>1417.95</v>
       </c>
       <c r="G683" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>42272</v>
       </c>
@@ -14296,7 +14309,7 @@
         <v>1420.6107</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>42275</v>
       </c>
@@ -14316,7 +14329,7 @@
         <v>1404.6511</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>42276</v>
       </c>
@@ -14336,7 +14349,7 @@
         <v>1395.2403999999999</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>42277</v>
       </c>
@@ -14356,7 +14369,7 @@
         <v>1417.8009</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>42278</v>
       </c>
@@ -14376,7 +14389,7 @@
         <v>1429.835</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>42279</v>
       </c>
@@ -14396,7 +14409,7 @@
         <v>1429.2602999999999</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>42282</v>
       </c>
@@ -14416,7 +14429,7 @@
         <v>1444.7164</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>42283</v>
       </c>
@@ -14436,7 +14449,7 @@
         <v>1451.2376999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>42284</v>
       </c>
@@ -14456,7 +14469,7 @@
         <v>1463.1594</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>42285</v>
       </c>
@@ -14476,7 +14489,7 @@
         <v>1455.0554</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>42286</v>
       </c>
@@ -14496,7 +14509,7 @@
         <v>1480.3018999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>42289</v>
       </c>
@@ -14516,7 +14529,7 @@
         <v>1489.7288000000001</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>42290</v>
       </c>
@@ -14536,7 +14549,7 @@
         <v>1460.4644000000001</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>42291</v>
       </c>
@@ -14556,7 +14569,7 @@
         <v>1448.1179999999999</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>42292</v>
       </c>
@@ -14576,7 +14589,7 @@
         <v>1444.0532000000001</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>42293</v>
       </c>
@@ -14596,7 +14609,7 @@
         <v>1461.9045000000001</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>42296</v>
       </c>
@@ -14616,7 +14629,7 @@
         <v>1462.09</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>42297</v>
       </c>
@@ -14636,7 +14649,7 @@
         <v>1460.6288</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>42298</v>
       </c>
@@ -14656,7 +14669,7 @@
         <v>1455.0934999999999</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>42299</v>
       </c>
@@ -14676,7 +14689,7 @@
         <v>1442.9393</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>42300</v>
       </c>
@@ -14696,7 +14709,7 @@
         <v>1498.4086</v>
       </c>
     </row>
-    <row r="705" spans="1:7">
+    <row r="705" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>42303</v>
       </c>
@@ -14716,7 +14729,7 @@
         <v>1508.886</v>
       </c>
     </row>
-    <row r="706" spans="1:7">
+    <row r="706" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>42304</v>
       </c>
@@ -14736,7 +14749,7 @@
         <v>1493.4105</v>
       </c>
     </row>
-    <row r="707" spans="1:7">
+    <row r="707" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>42305</v>
       </c>
@@ -14756,7 +14769,7 @@
         <v>1490.7876000000001</v>
       </c>
     </row>
-    <row r="708" spans="1:7">
+    <row r="708" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A708" s="6">
         <v>42306</v>
       </c>
@@ -14765,7 +14778,7 @@
       </c>
       <c r="C708">
         <f ca="1">RANDBETWEEN(1484.17,1505.98)</f>
-        <v>1493</v>
+        <v>1487</v>
       </c>
       <c r="D708">
         <v>0</v>
@@ -14775,13 +14788,13 @@
       </c>
       <c r="F708">
         <f ca="1">C708-0.08</f>
-        <v>1492.92</v>
+        <v>1486.92</v>
       </c>
       <c r="G708" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="709" spans="1:7">
+    <row r="709" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>42307</v>
       </c>
@@ -14801,7 +14814,7 @@
         <v>1500.6306999999999</v>
       </c>
     </row>
-    <row r="710" spans="1:7">
+    <row r="710" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>42310</v>
       </c>
@@ -14821,7 +14834,7 @@
         <v>1505.2057</v>
       </c>
     </row>
-    <row r="711" spans="1:7">
+    <row r="711" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>42311</v>
       </c>
@@ -14841,7 +14854,7 @@
         <v>1503.5205000000001</v>
       </c>
     </row>
-    <row r="712" spans="1:7">
+    <row r="712" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>42312</v>
       </c>
@@ -14861,7 +14874,7 @@
         <v>1524.3912</v>
       </c>
     </row>
-    <row r="713" spans="1:7">
+    <row r="713" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>42313</v>
       </c>
@@ -14881,7 +14894,7 @@
         <v>1527.8315</v>
       </c>
     </row>
-    <row r="714" spans="1:7">
+    <row r="714" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>42314</v>
       </c>
@@ -14901,7 +14914,7 @@
         <v>1519.7086999999999</v>
       </c>
     </row>
-    <row r="715" spans="1:7">
+    <row r="715" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>42317</v>
       </c>
@@ -14921,7 +14934,7 @@
         <v>1533.1984</v>
       </c>
     </row>
-    <row r="716" spans="1:7">
+    <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>42318</v>
       </c>
@@ -14941,7 +14954,7 @@
         <v>1490.7775999999999</v>
       </c>
     </row>
-    <row r="717" spans="1:7">
+    <row r="717" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>42319</v>
       </c>
@@ -14961,7 +14974,7 @@
         <v>1506.845</v>
       </c>
     </row>
-    <row r="718" spans="1:7">
+    <row r="718" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>42320</v>
       </c>
@@ -14981,7 +14994,7 @@
         <v>1505.4169999999999</v>
       </c>
     </row>
-    <row r="719" spans="1:7">
+    <row r="719" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>42321</v>
       </c>
@@ -15001,7 +15014,7 @@
         <v>1476.5653</v>
       </c>
     </row>
-    <row r="720" spans="1:7">
+    <row r="720" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>42324</v>
       </c>
@@ -15021,7 +15034,7 @@
         <v>1480.4475</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>42325</v>
       </c>
@@ -15041,7 +15054,7 @@
         <v>1507.1913999999999</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>42326</v>
       </c>
@@ -15061,7 +15074,7 @@
         <v>1507.4302</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>42327</v>
       </c>
@@ -15081,7 +15094,7 @@
         <v>1529.0431000000001</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>42328</v>
       </c>
@@ -15101,7 +15114,7 @@
         <v>1516.384</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>42331</v>
       </c>
@@ -15121,7 +15134,7 @@
         <v>1513.1277</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>42332</v>
       </c>
@@ -15141,7 +15154,7 @@
         <v>1497.4440999999999</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>42333</v>
       </c>
@@ -15161,7 +15174,7 @@
         <v>1501.6052</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>42334</v>
       </c>
@@ -15181,7 +15194,7 @@
         <v>1514.6858</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>42335</v>
       </c>
@@ -15201,7 +15214,7 @@
         <v>1525.5026</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>42338</v>
       </c>
@@ -15221,7 +15234,7 @@
         <v>1533.7043000000001</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>42339</v>
       </c>
@@ -15241,7 +15254,7 @@
         <v>1539.9066</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>42340</v>
       </c>
@@ -15261,7 +15274,7 @@
         <v>1532.0059000000001</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>42341</v>
       </c>
@@ -15281,7 +15294,7 @@
         <v>1541.2050999999999</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>42342</v>
       </c>
@@ -15301,7 +15314,7 @@
         <v>1486.8176000000001</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>42345</v>
       </c>
@@ -15321,7 +15334,7 @@
         <v>1502.2144000000001</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>42346</v>
       </c>
@@ -15341,7 +15354,7 @@
         <v>1472.2211</v>
       </c>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>42347</v>
       </c>
@@ -15361,7 +15374,7 @@
         <v>1438.4727</v>
       </c>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>42348</v>
       </c>
@@ -15381,7 +15394,7 @@
         <v>1441.7181</v>
       </c>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>42349</v>
       </c>
@@ -15401,7 +15414,7 @@
         <v>1411.5908999999999</v>
       </c>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>42352</v>
       </c>
@@ -15421,7 +15434,7 @@
         <v>1413.4376</v>
       </c>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>42353</v>
       </c>
@@ -15441,7 +15454,7 @@
         <v>1413.9703</v>
       </c>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>42354</v>
       </c>
@@ -15461,7 +15474,7 @@
         <v>1436.2482</v>
       </c>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>42355</v>
       </c>
@@ -15481,7 +15494,7 @@
         <v>1455.8818000000001</v>
       </c>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>42356</v>
       </c>
@@ -15501,7 +15514,7 @@
         <v>1427.2383</v>
       </c>
     </row>
-    <row r="745" spans="1:6">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>42359</v>
       </c>
@@ -15521,7 +15534,7 @@
         <v>1438.9603</v>
       </c>
     </row>
-    <row r="746" spans="1:6">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>42360</v>
       </c>
@@ -15541,7 +15554,7 @@
         <v>1419.2906</v>
       </c>
     </row>
-    <row r="747" spans="1:6">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>42361</v>
       </c>
@@ -15561,7 +15574,7 @@
         <v>1435.9869000000001</v>
       </c>
     </row>
-    <row r="748" spans="1:6">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>42366</v>
       </c>
@@ -15581,7 +15594,7 @@
         <v>1443.3656000000001</v>
       </c>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>42367</v>
       </c>
@@ -15601,7 +15614,7 @@
         <v>1445.2666999999999</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>42368</v>
       </c>
@@ -15621,7 +15634,7 @@
         <v>1449.8948</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>42373</v>
       </c>
@@ -15641,7 +15654,7 @@
         <v>1405.0404000000001</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>42374</v>
       </c>
@@ -15661,7 +15674,7 @@
         <v>1390.6034999999999</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>42376</v>
       </c>
@@ -15681,7 +15694,7 @@
         <v>1345.7878000000001</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>42377</v>
       </c>
@@ -15701,7 +15714,7 @@
         <v>1368.7692</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>42380</v>
       </c>
@@ -15721,7 +15734,7 @@
         <v>1348.434</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>42381</v>
       </c>
@@ -15741,7 +15754,7 @@
         <v>1367.3927000000001</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>42382</v>
       </c>
@@ -15761,7 +15774,7 @@
         <v>1372.7306000000001</v>
       </c>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>42383</v>
       </c>
@@ -15781,7 +15794,7 @@
         <v>1331.5494000000001</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>42384</v>
       </c>
@@ -15801,7 +15814,7 @@
         <v>1320.8517999999999</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>42387</v>
       </c>
@@ -15821,7 +15834,7 @@
         <v>1316.2716</v>
       </c>
     </row>
-    <row r="761" spans="1:6">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>42388</v>
       </c>
@@ -15841,7 +15854,7 @@
         <v>1338.5785000000001</v>
       </c>
     </row>
-    <row r="762" spans="1:6">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>42389</v>
       </c>
@@ -15861,7 +15874,7 @@
         <v>1298.902</v>
       </c>
     </row>
-    <row r="763" spans="1:6">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>42390</v>
       </c>
@@ -15881,7 +15894,7 @@
         <v>1298.1124</v>
       </c>
     </row>
-    <row r="764" spans="1:6">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>42391</v>
       </c>
@@ -15901,7 +15914,7 @@
         <v>1352.1974</v>
       </c>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>42394</v>
       </c>
@@ -15921,7 +15934,7 @@
         <v>1357.3607999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:6">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>42395</v>
       </c>
@@ -15941,7 +15954,7 @@
         <v>1351.9592</v>
       </c>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>42396</v>
       </c>
@@ -15961,7 +15974,7 @@
         <v>1356.5107</v>
       </c>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>42397</v>
       </c>
@@ -15981,7 +15994,7 @@
         <v>1348.5826</v>
       </c>
     </row>
-    <row r="769" spans="1:6">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>42398</v>
       </c>
@@ -16001,7 +16014,7 @@
         <v>1339.2166</v>
       </c>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>42401</v>
       </c>
@@ -16021,7 +16034,7 @@
         <v>1349.4091000000001</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>42402</v>
       </c>
@@ -16041,7 +16054,7 @@
         <v>1324.0753999999999</v>
       </c>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>42403</v>
       </c>
@@ -16061,7 +16074,7 @@
         <v>1316.0154</v>
       </c>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>42404</v>
       </c>
@@ -16081,7 +16094,7 @@
         <v>1325.6831999999999</v>
       </c>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>42405</v>
       </c>
@@ -16101,7 +16114,7 @@
         <v>1341.5916</v>
       </c>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>42408</v>
       </c>
@@ -16121,7 +16134,7 @@
         <v>1299.9706000000001</v>
       </c>
     </row>
-    <row r="776" spans="1:6">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>42409</v>
       </c>
@@ -16141,7 +16154,7 @@
         <v>1280.5724</v>
       </c>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>42410</v>
       </c>
@@ -16161,7 +16174,7 @@
         <v>1300.6359</v>
       </c>
     </row>
-    <row r="778" spans="1:6">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>42411</v>
       </c>
@@ -16181,7 +16194,7 @@
         <v>1264.1600000000001</v>
       </c>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>42412</v>
       </c>
@@ -16201,7 +16214,7 @@
         <v>1271.0244</v>
       </c>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>42415</v>
       </c>
@@ -16221,7 +16234,7 @@
         <v>1327.8905999999999</v>
       </c>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>42416</v>
       </c>
@@ -16241,7 +16254,7 @@
         <v>1332.3849</v>
       </c>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>42417</v>
       </c>
@@ -16261,7 +16274,7 @@
         <v>1356.3925999999999</v>
       </c>
     </row>
-    <row r="783" spans="1:6">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>42418</v>
       </c>
@@ -16281,7 +16294,7 @@
         <v>1374.2272</v>
       </c>
     </row>
-    <row r="784" spans="1:6">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>42419</v>
       </c>
@@ -16301,7 +16314,7 @@
         <v>1359.0315000000001</v>
       </c>
     </row>
-    <row r="785" spans="1:6">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>42422</v>
       </c>
@@ -16321,7 +16334,7 @@
         <v>1381.3072999999999</v>
       </c>
     </row>
-    <row r="786" spans="1:6">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>42423</v>
       </c>
@@ -16341,7 +16354,7 @@
         <v>1378.2926</v>
       </c>
     </row>
-    <row r="787" spans="1:6">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>42424</v>
       </c>
@@ -16361,7 +16374,7 @@
         <v>1341.8643</v>
       </c>
     </row>
-    <row r="788" spans="1:6">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>42425</v>
       </c>
@@ -16381,7 +16394,7 @@
         <v>1346.3914</v>
       </c>
     </row>
-    <row r="789" spans="1:6">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>42426</v>
       </c>
@@ -16401,7 +16414,7 @@
         <v>1375.12</v>
       </c>
     </row>
-    <row r="790" spans="1:6">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>42429</v>
       </c>
@@ -16421,7 +16434,7 @@
         <v>1352.7094</v>
       </c>
     </row>
-    <row r="791" spans="1:6">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>42430</v>
       </c>
@@ -16441,7 +16454,7 @@
         <v>1373.1289999999999</v>
       </c>
     </row>
-    <row r="792" spans="1:6">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A792" s="10">
         <v>42431</v>
       </c>
@@ -16461,7 +16474,7 @@
         <v>1389.95</v>
       </c>
     </row>
-    <row r="793" spans="1:6">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>42432</v>
       </c>
@@ -16481,7 +16494,7 @@
         <v>1392.5286000000001</v>
       </c>
     </row>
-    <row r="794" spans="1:6">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>42433</v>
       </c>
@@ -16501,7 +16514,7 @@
         <v>1396.9934000000001</v>
       </c>
     </row>
-    <row r="795" spans="1:6">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>42436</v>
       </c>
@@ -16521,7 +16534,7 @@
         <v>1389.8883000000001</v>
       </c>
     </row>
-    <row r="796" spans="1:6">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>42437</v>
       </c>
@@ -16541,7 +16554,7 @@
         <v>1390.7406000000001</v>
       </c>
     </row>
-    <row r="797" spans="1:6">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>42438</v>
       </c>
@@ -16561,7 +16574,7 @@
         <v>1394.4733000000001</v>
       </c>
     </row>
-    <row r="798" spans="1:6">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>42439</v>
       </c>
@@ -16581,7 +16594,7 @@
         <v>1395.9347</v>
       </c>
     </row>
-    <row r="799" spans="1:6">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>42440</v>
       </c>
@@ -16601,7 +16614,7 @@
         <v>1415.3568</v>
       </c>
     </row>
-    <row r="800" spans="1:6">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>42443</v>
       </c>
@@ -16621,7 +16634,7 @@
         <v>1424.097</v>
       </c>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>42444</v>
       </c>
@@ -16641,7 +16654,7 @@
         <v>1408.7560000000001</v>
       </c>
     </row>
-    <row r="802" spans="1:6">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>42445</v>
       </c>
@@ -16661,7 +16674,7 @@
         <v>1399.8857</v>
       </c>
     </row>
-    <row r="803" spans="1:6">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>42446</v>
       </c>
@@ -16681,7 +16694,7 @@
         <v>1370.8402000000001</v>
       </c>
     </row>
-    <row r="804" spans="1:6">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>42447</v>
       </c>
@@ -16701,7 +16714,7 @@
         <v>1382.0590999999999</v>
       </c>
     </row>
-    <row r="805" spans="1:6">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>42450</v>
       </c>
@@ -16721,7 +16734,7 @@
         <v>1382.981</v>
       </c>
     </row>
-    <row r="806" spans="1:6">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>42451</v>
       </c>
@@ -16741,7 +16754,7 @@
         <v>1366.9111</v>
       </c>
     </row>
-    <row r="807" spans="1:6">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>42452</v>
       </c>
@@ -16761,7 +16774,7 @@
         <v>1376.7043000000001</v>
       </c>
     </row>
-    <row r="808" spans="1:6">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>42453</v>
       </c>
@@ -16781,7 +16794,7 @@
         <v>1351.0463</v>
       </c>
     </row>
-    <row r="809" spans="1:6">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>42458</v>
       </c>
@@ -16801,7 +16814,7 @@
         <v>1342.0437999999999</v>
       </c>
     </row>
-    <row r="810" spans="1:6">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>42459</v>
       </c>
@@ -16821,7 +16834,7 @@
         <v>1372.5906</v>
       </c>
     </row>
-    <row r="811" spans="1:6">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>42460</v>
       </c>
@@ -16841,7 +16854,7 @@
         <v>1367.3665000000001</v>
       </c>
     </row>
-    <row r="812" spans="1:6">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>42461</v>
       </c>
@@ -16861,7 +16874,7 @@
         <v>1352.5703000000001</v>
       </c>
     </row>
-    <row r="813" spans="1:6">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>42464</v>
       </c>
@@ -16881,7 +16894,7 @@
         <v>1365.2383</v>
       </c>
     </row>
-    <row r="814" spans="1:6">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>42465</v>
       </c>
@@ -16901,7 +16914,7 @@
         <v>1329.5895</v>
       </c>
     </row>
-    <row r="815" spans="1:6">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>42466</v>
       </c>
@@ -16921,7 +16934,7 @@
         <v>1337.3253999999999</v>
       </c>
     </row>
-    <row r="816" spans="1:6">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>42467</v>
       </c>
@@ -16941,7 +16954,7 @@
         <v>1335.3289</v>
       </c>
     </row>
-    <row r="817" spans="1:6">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>42468</v>
       </c>
@@ -16961,7 +16974,7 @@
         <v>1349.7429</v>
       </c>
     </row>
-    <row r="818" spans="1:6">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>42471</v>
       </c>
@@ -16981,7 +16994,7 @@
         <v>1369.6641</v>
       </c>
     </row>
-    <row r="819" spans="1:6">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>42472</v>
       </c>
@@ -17001,7 +17014,7 @@
         <v>1365.8434</v>
       </c>
     </row>
-    <row r="820" spans="1:6">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>42473</v>
       </c>
@@ -17021,7 +17034,7 @@
         <v>1391.8955000000001</v>
       </c>
     </row>
-    <row r="821" spans="1:6">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>42474</v>
       </c>
@@ -17041,7 +17054,7 @@
         <v>1392.5021999999999</v>
       </c>
     </row>
-    <row r="822" spans="1:6">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>42475</v>
       </c>
@@ -17061,7 +17074,7 @@
         <v>1383.6464000000001</v>
       </c>
     </row>
-    <row r="823" spans="1:6">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>42478</v>
       </c>
@@ -17084,10 +17097,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/DataFiltered1.xlsx
+++ b/DataFiltered1.xlsx
@@ -606,7 +606,7 @@
   <dimension ref="A1:G823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C90">
         <f ca="1">RANDBETWEEN(1223.37,1232.85)</f>
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="D90" s="3">
         <v>0</v>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F90" s="3">
         <f ca="1">C90-0.15</f>
-        <v>1224.8499999999999</v>
+        <v>1228.8499999999999</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>3</v>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="C116">
         <f ca="1">RANDBETWEEN(1180.23,1196.45)</f>
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="F116">
         <f ca="1">C116+0.12</f>
-        <v>1192.1199999999999</v>
+        <v>1194.1199999999999</v>
       </c>
       <c r="G116" s="5" t="s">
         <v>3</v>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C124">
         <f ca="1">RANDBETWEEN(1153.88,1167.34)</f>
-        <v>1163</v>
+        <v>1156</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="F124">
         <f ca="1">C124+0.1</f>
-        <v>1163.0999999999999</v>
+        <v>1156.0999999999999</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>3</v>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C125">
         <f ca="1">RANDBETWEEN(1150.39,1165.98)</f>
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="F125">
         <f ca="1">C125+0.2</f>
-        <v>1157.2</v>
+        <v>1163.2</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>3</v>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="C254" s="3">
         <f ca="1">RANDBETWEEN(1323.37,1330.09)</f>
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="D254" s="3">
         <v>0</v>
@@ -5733,7 +5733,7 @@
       </c>
       <c r="F254" s="3">
         <f ca="1">C254+0.06</f>
-        <v>1324.06</v>
+        <v>1325.06</v>
       </c>
       <c r="G254" s="5" t="s">
         <v>3</v>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="C275">
         <f ca="1">RANDBETWEEN(1283.96,1295.81)</f>
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D275" s="3">
         <v>0</v>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="F275">
         <f ca="1">C275-0.1</f>
-        <v>1285.9000000000001</v>
+        <v>1284.9000000000001</v>
       </c>
       <c r="G275" s="5" t="s">
         <v>3</v>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="C283">
         <f ca="1">RANDBETWEEN(1338.79,1345.58)</f>
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D283">
         <v>0</v>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="F283">
         <f ca="1">C283+0.01</f>
-        <v>1339.01</v>
+        <v>1340.01</v>
       </c>
       <c r="G283" s="5" t="s">
         <v>3</v>
@@ -6438,7 +6438,7 @@
       </c>
       <c r="C289">
         <f ca="1">RANDBETWEEN(1363.04,1372.51)</f>
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -6448,7 +6448,7 @@
       </c>
       <c r="F289">
         <f ca="1">C289+0.02</f>
-        <v>1366.02</v>
+        <v>1370.02</v>
       </c>
       <c r="G289" s="5" t="s">
         <v>3</v>
@@ -9123,7 +9123,7 @@
       </c>
       <c r="C423">
         <f ca="1">RANDBETWEEN(1382.56,1391.21)</f>
-        <v>1383</v>
+        <v>1390</v>
       </c>
       <c r="D423">
         <v>0</v>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="F423">
         <f ca="1">C423-0.02</f>
-        <v>1382.98</v>
+        <v>1389.98</v>
       </c>
       <c r="G423" s="5" t="s">
         <v>3</v>
@@ -10695,7 +10695,7 @@
       </c>
       <c r="C505" s="3">
         <f ca="1">RANDBETWEEN(1444.55,1460.11)</f>
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="D505" s="3">
         <v>0</v>
@@ -10705,7 +10705,7 @@
       </c>
       <c r="F505" s="3">
         <f ca="1">C505-0.1</f>
-        <v>1446.9</v>
+        <v>1451.9</v>
       </c>
       <c r="G505" s="5" t="s">
         <v>3</v>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="C525">
         <f ca="1">RANDBETWEEN(1582.56,1593.18)</f>
-        <v>1591</v>
+        <v>1585</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -11110,7 +11110,7 @@
       </c>
       <c r="F525">
         <f ca="1">C525+0.01</f>
-        <v>1591.01</v>
+        <v>1585.01</v>
       </c>
       <c r="G525" s="5" t="s">
         <v>3</v>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="C550">
         <f ca="1">RANDBETWEEN(1671.06,1690.27)</f>
-        <v>1688</v>
+        <v>1678</v>
       </c>
       <c r="D550">
         <v>0</v>
@@ -11615,7 +11615,7 @@
       </c>
       <c r="F550">
         <f ca="1">C550+0.01</f>
-        <v>1688.01</v>
+        <v>1678.01</v>
       </c>
       <c r="G550" s="5" t="s">
         <v>3</v>
@@ -14273,7 +14273,7 @@
       </c>
       <c r="C683">
         <f ca="1">RANDBETWEEN(1378.94,1424.2)</f>
-        <v>1418</v>
+        <v>1401</v>
       </c>
       <c r="D683">
         <v>0</v>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="F683">
         <f ca="1">C683-0.05</f>
-        <v>1417.95</v>
+        <v>1400.95</v>
       </c>
       <c r="G683" s="5" t="s">
         <v>3</v>
@@ -14778,7 +14778,7 @@
       </c>
       <c r="C708">
         <f ca="1">RANDBETWEEN(1484.17,1505.98)</f>
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="D708">
         <v>0</v>
@@ -14788,7 +14788,7 @@
       </c>
       <c r="F708">
         <f ca="1">C708-0.08</f>
-        <v>1486.92</v>
+        <v>1484.92</v>
       </c>
       <c r="G708" s="5" t="s">
         <v>3</v>
